--- a/src/test/resources/TestDriver/TestGFO/RefData_GFO.xlsx
+++ b/src/test/resources/TestDriver/TestGFO/RefData_GFO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\TestGFO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\TestGFO\TestGFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01771F5F-FD47-45BB-AD5A-2126D26CCAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB023D5-21B2-4ED2-A11E-E8570E9F342A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
@@ -182,33 +182,6 @@
     <t>ORIGINATION_DATE</t>
   </si>
   <si>
-    <t>Conversion_Principal</t>
-  </si>
-  <si>
-    <t>Conversion_Interest</t>
-  </si>
-  <si>
-    <t>Interest_Accrual</t>
-  </si>
-  <si>
-    <t>PayOff_UPB</t>
-  </si>
-  <si>
-    <t>PayOff_Interest</t>
-  </si>
-  <si>
-    <t>PayOff_InterestAdj</t>
-  </si>
-  <si>
-    <t>Capitalized_Interest</t>
-  </si>
-  <si>
-    <t>Capitalized_Principal</t>
-  </si>
-  <si>
-    <t>Payment_Principal</t>
-  </si>
-  <si>
     <t>ACCRUAL_METHOD</t>
   </si>
   <si>
@@ -237,6 +210,33 @@
   </si>
   <si>
     <t>CLR</t>
+  </si>
+  <si>
+    <t>CONVERSION_PRINCIPAL</t>
+  </si>
+  <si>
+    <t>CONVERSION_INTEREST</t>
+  </si>
+  <si>
+    <t>INTEREST_ACCRUAL</t>
+  </si>
+  <si>
+    <t>PAYOFF_UPB</t>
+  </si>
+  <si>
+    <t>PAYOFF_INTEREST</t>
+  </si>
+  <si>
+    <t>PAYOFF_INTERESTADJ</t>
+  </si>
+  <si>
+    <t>CAPITALIZED_INTEREST</t>
+  </si>
+  <si>
+    <t>CAPITALIZED_PRINCIPAL</t>
+  </si>
+  <si>
+    <t>PAYMENT_PRINCIPAL</t>
   </si>
 </sst>
 </file>
@@ -583,9 +583,7 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -593,7 +591,6 @@
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -612,7 +609,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -626,7 +623,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -640,7 +637,7 @@
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -654,7 +651,7 @@
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -668,7 +665,7 @@
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -682,7 +679,7 @@
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -696,7 +693,7 @@
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -710,7 +707,7 @@
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -724,7 +721,7 @@
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -806,7 +803,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -826,7 +823,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -854,15 +851,17 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="67.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="11.5703125" style="3"/>
+    <col min="3" max="16384" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -875,74 +874,74 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -983,7 +982,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>21</v>
@@ -991,7 +990,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>22</v>
@@ -999,7 +998,7 @@
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>21</v>
@@ -1007,7 +1006,7 @@
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>21</v>
@@ -1015,7 +1014,7 @@
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>22</v>
@@ -1065,7 +1064,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>27</v>
@@ -1074,12 +1073,12 @@
         <v>28</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>27</v>
@@ -1088,12 +1087,12 @@
         <v>29</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>27</v>
@@ -1102,12 +1101,12 @@
         <v>28</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>27</v>
@@ -1116,12 +1115,12 @@
         <v>29</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>27</v>
@@ -1130,12 +1129,12 @@
         <v>28</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>27</v>
@@ -1144,12 +1143,12 @@
         <v>29</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
@@ -1158,12 +1157,12 @@
         <v>28</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>27</v>
@@ -1172,12 +1171,12 @@
         <v>29</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>27</v>
@@ -1186,12 +1185,12 @@
         <v>28</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>27</v>
@@ -1200,12 +1199,12 @@
         <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>27</v>
@@ -1214,12 +1213,12 @@
         <v>28</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>27</v>
@@ -1228,12 +1227,12 @@
         <v>29</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>27</v>
@@ -1242,12 +1241,12 @@
         <v>28</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>27</v>
@@ -1256,12 +1255,12 @@
         <v>29</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -1270,12 +1269,12 @@
         <v>28</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>27</v>
@@ -1284,12 +1283,12 @@
         <v>29</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>27</v>
@@ -1298,12 +1297,12 @@
         <v>28</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>27</v>
@@ -1312,7 +1311,7 @@
         <v>29</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1332,7 +1331,9 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1355,57 +1356,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4">
         <v>1000</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B3" s="4">
         <v>2000</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3">
         <v>3000</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3">
         <v>4000</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B6" s="3">
         <v>5000</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestDriver/TestGFO/RefData_GFO.xlsx
+++ b/src/test/resources/TestDriver/TestGFO/RefData_GFO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\TestGFO\TestGFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB023D5-21B2-4ED2-A11E-E8570E9F342A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1397DF2F-E011-476B-8006-9D2A3A25BB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>PAYMENT_PRINCIPAL</t>
+  </si>
+  <si>
+    <t>PRINCIPAL</t>
+  </si>
+  <si>
+    <t>INTEREST</t>
   </si>
 </sst>
 </file>
@@ -851,11 +857,9 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -882,66 +886,82 @@
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>36</v>
+      <c r="B12" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1331,8 +1351,8 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
